--- a/templates/F-825-144J CMD-G.L00.00 aprevo TLIF-C Final QC Insp.xlsx
+++ b/templates/F-825-144J CMD-G.L00.00 aprevo TLIF-C Final QC Insp.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\AI Records\Empty Templates\Fake 825\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ethan Nguyen\Desktop\Compare 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{290CCB01-4D0A-4815-B03C-D8B0BFC558A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A276380-BF1E-420F-8DE0-9E5867F14EE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -420,7 +420,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -468,12 +468,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color rgb="FF0070C0"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="8"/>
       <name val="Aptos Narrow"/>
@@ -508,6 +502,19 @@
     <font>
       <i/>
       <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
     </font>
@@ -767,7 +774,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -840,55 +847,145 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -897,146 +994,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1370,7 +1377,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L56"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="140" zoomScaleNormal="100" zoomScalePageLayoutView="140" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A16" zoomScale="140" zoomScaleNormal="100" zoomScalePageLayoutView="140" workbookViewId="0">
       <selection activeCell="C12" sqref="C12:D12"/>
     </sheetView>
   </sheetViews>
@@ -1389,250 +1396,250 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="6" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="81" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="70" t="s">
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="J1" s="72" t="s">
+      <c r="J1" s="60" t="s">
         <v>92</v>
       </c>
-      <c r="K1" s="73"/>
-      <c r="L1" s="74"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="62"/>
     </row>
     <row r="2" spans="1:12" s="6" customFormat="1" ht="10.5" x14ac:dyDescent="0.4">
-      <c r="A2" s="64"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="77"/>
+      <c r="A2" s="52"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="65"/>
     </row>
     <row r="3" spans="1:12" s="6" customFormat="1" ht="20.7" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="88" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="89"/>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="94" t="s">
         <v>94</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="94" t="s">
         <v>95</v>
       </c>
-      <c r="E3" s="49" t="s">
+      <c r="E3" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="40" t="s">
+      <c r="F3" s="95" t="s">
         <v>113</v>
       </c>
-      <c r="G3" s="41"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="49" t="s">
+      <c r="G3" s="96"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="40" t="s">
+      <c r="J3" s="95" t="s">
         <v>112</v>
       </c>
-      <c r="K3" s="41"/>
-      <c r="L3" s="42"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="97"/>
     </row>
     <row r="4" spans="1:12" s="6" customFormat="1" ht="20.7" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="90"/>
       <c r="B4" s="91"/>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="94" t="s">
         <v>96</v>
       </c>
-      <c r="D4" s="39" t="s">
+      <c r="D4" s="94" t="s">
         <v>97</v>
       </c>
-      <c r="E4" s="50"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="45"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="98"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="100"/>
     </row>
     <row r="5" spans="1:12" s="6" customFormat="1" ht="20.7" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="90"/>
       <c r="B5" s="91"/>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="94" t="s">
         <v>98</v>
       </c>
-      <c r="D5" s="39" t="s">
+      <c r="D5" s="94" t="s">
         <v>99</v>
       </c>
-      <c r="E5" s="50"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="45"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="99"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="98"/>
+      <c r="K5" s="99"/>
+      <c r="L5" s="100"/>
     </row>
     <row r="6" spans="1:12" s="6" customFormat="1" ht="20.7" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="90"/>
       <c r="B6" s="91"/>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="94" t="s">
         <v>100</v>
       </c>
-      <c r="D6" s="39" t="s">
+      <c r="D6" s="94" t="s">
         <v>101</v>
       </c>
-      <c r="E6" s="50"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="45"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="99"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="83"/>
+      <c r="J6" s="98"/>
+      <c r="K6" s="99"/>
+      <c r="L6" s="100"/>
     </row>
     <row r="7" spans="1:12" s="6" customFormat="1" ht="20.7" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="90"/>
       <c r="B7" s="91"/>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="94" t="s">
         <v>102</v>
       </c>
-      <c r="D7" s="39" t="s">
+      <c r="D7" s="94" t="s">
         <v>103</v>
       </c>
-      <c r="E7" s="50"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="45"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="98"/>
+      <c r="G7" s="99"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="83"/>
+      <c r="J7" s="98"/>
+      <c r="K7" s="99"/>
+      <c r="L7" s="100"/>
     </row>
     <row r="8" spans="1:12" s="6" customFormat="1" ht="20.7" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="90"/>
       <c r="B8" s="91"/>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="94" t="s">
         <v>104</v>
       </c>
-      <c r="D8" s="39" t="s">
+      <c r="D8" s="94" t="s">
         <v>105</v>
       </c>
-      <c r="E8" s="50"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="45"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="98"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="100"/>
+      <c r="I8" s="83"/>
+      <c r="J8" s="98"/>
+      <c r="K8" s="99"/>
+      <c r="L8" s="100"/>
     </row>
     <row r="9" spans="1:12" s="6" customFormat="1" ht="20.7" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="90"/>
       <c r="B9" s="91"/>
-      <c r="C9" s="39" t="s">
+      <c r="C9" s="94" t="s">
         <v>106</v>
       </c>
-      <c r="D9" s="39" t="s">
+      <c r="D9" s="94" t="s">
         <v>107</v>
       </c>
-      <c r="E9" s="50"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="45"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="98"/>
+      <c r="G9" s="99"/>
+      <c r="H9" s="100"/>
+      <c r="I9" s="83"/>
+      <c r="J9" s="98"/>
+      <c r="K9" s="99"/>
+      <c r="L9" s="100"/>
     </row>
     <row r="10" spans="1:12" s="6" customFormat="1" ht="20.7" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="90"/>
       <c r="B10" s="91"/>
-      <c r="C10" s="39" t="s">
+      <c r="C10" s="94" t="s">
         <v>108</v>
       </c>
-      <c r="D10" s="39" t="s">
+      <c r="D10" s="94" t="s">
         <v>109</v>
       </c>
-      <c r="E10" s="50"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="44"/>
-      <c r="L10" s="45"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="98"/>
+      <c r="G10" s="99"/>
+      <c r="H10" s="100"/>
+      <c r="I10" s="83"/>
+      <c r="J10" s="98"/>
+      <c r="K10" s="99"/>
+      <c r="L10" s="100"/>
     </row>
     <row r="11" spans="1:12" s="6" customFormat="1" ht="20.7" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="92"/>
       <c r="B11" s="93"/>
-      <c r="C11" s="39" t="s">
+      <c r="C11" s="94" t="s">
         <v>110</v>
       </c>
-      <c r="D11" s="39" t="s">
+      <c r="D11" s="94" t="s">
         <v>111</v>
       </c>
-      <c r="E11" s="51"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="47"/>
-      <c r="L11" s="48"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="101"/>
+      <c r="G11" s="102"/>
+      <c r="H11" s="103"/>
+      <c r="I11" s="76"/>
+      <c r="J11" s="101"/>
+      <c r="K11" s="102"/>
+      <c r="L11" s="103"/>
     </row>
     <row r="12" spans="1:12" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A12" s="64" t="s">
+      <c r="A12" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="64"/>
-      <c r="C12" s="87" t="s">
+      <c r="B12" s="52"/>
+      <c r="C12" s="104" t="s">
         <v>114</v>
       </c>
-      <c r="D12" s="87"/>
+      <c r="D12" s="104"/>
       <c r="E12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="78"/>
-      <c r="G12" s="79"/>
-      <c r="H12" s="80"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="68"/>
       <c r="I12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J12" s="78"/>
-      <c r="K12" s="79"/>
-      <c r="L12" s="80"/>
+      <c r="J12" s="66"/>
+      <c r="K12" s="67"/>
+      <c r="L12" s="68"/>
     </row>
     <row r="13" spans="1:12" s="6" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="66" t="s">
+      <c r="A13" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="67"/>
-      <c r="C13" s="68"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="69"/>
-      <c r="I13" s="69"/>
-      <c r="J13" s="69"/>
-      <c r="K13" s="69"/>
-      <c r="L13" s="69"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="57"/>
     </row>
     <row r="14" spans="1:12" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="15" spans="1:12" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.4">
@@ -1663,11 +1670,11 @@
       <c r="I15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J15" s="64" t="s">
+      <c r="J15" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="K15" s="64"/>
-      <c r="L15" s="64"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="52"/>
     </row>
     <row r="16" spans="1:12" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="3">
@@ -1693,11 +1700,11 @@
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="54" t="s">
+      <c r="J16" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="K16" s="54"/>
-      <c r="L16" s="54"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="45"/>
     </row>
     <row r="17" spans="1:12" s="6" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="3">
@@ -1723,11 +1730,11 @@
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="54" t="s">
+      <c r="J17" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="K17" s="54"/>
-      <c r="L17" s="54"/>
+      <c r="K17" s="45"/>
+      <c r="L17" s="45"/>
     </row>
     <row r="18" spans="1:12" s="6" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="3">
@@ -1753,11 +1760,11 @@
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="54" t="s">
+      <c r="J18" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="K18" s="54"/>
-      <c r="L18" s="54"/>
+      <c r="K18" s="45"/>
+      <c r="L18" s="45"/>
     </row>
     <row r="19" spans="1:12" s="6" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="3">
@@ -1783,11 +1790,11 @@
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="54" t="s">
+      <c r="J19" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="K19" s="54"/>
-      <c r="L19" s="54"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="45"/>
     </row>
     <row r="20" spans="1:12" s="6" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3">
@@ -1813,11 +1820,11 @@
       </c>
       <c r="H20" s="16"/>
       <c r="I20" s="16"/>
-      <c r="J20" s="54" t="s">
+      <c r="J20" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="K20" s="54"/>
-      <c r="L20" s="54"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="45"/>
     </row>
     <row r="21" spans="1:12" s="6" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3">
@@ -1843,11 +1850,11 @@
       </c>
       <c r="H21" s="16"/>
       <c r="I21" s="16"/>
-      <c r="J21" s="54" t="s">
+      <c r="J21" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="K21" s="54"/>
-      <c r="L21" s="54"/>
+      <c r="K21" s="45"/>
+      <c r="L21" s="45"/>
     </row>
     <row r="22" spans="1:12" s="6" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="3">
@@ -1873,11 +1880,11 @@
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="54" t="s">
+      <c r="J22" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="K22" s="54"/>
-      <c r="L22" s="54"/>
+      <c r="K22" s="45"/>
+      <c r="L22" s="45"/>
     </row>
     <row r="23" spans="1:12" s="6" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="3">
@@ -1903,11 +1910,11 @@
       </c>
       <c r="H23" s="16"/>
       <c r="I23" s="16"/>
-      <c r="J23" s="54" t="s">
+      <c r="J23" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="K23" s="54"/>
-      <c r="L23" s="54"/>
+      <c r="K23" s="45"/>
+      <c r="L23" s="45"/>
     </row>
     <row r="24" spans="1:12" s="6" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="3">
@@ -1933,11 +1940,11 @@
       </c>
       <c r="H24" s="16"/>
       <c r="I24" s="16"/>
-      <c r="J24" s="53" t="s">
+      <c r="J24" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="K24" s="53"/>
-      <c r="L24" s="53"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="40"/>
     </row>
     <row r="25" spans="1:12" s="6" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="3">
@@ -1963,11 +1970,11 @@
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-      <c r="J25" s="53" t="s">
+      <c r="J25" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="K25" s="53"/>
-      <c r="L25" s="53"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="40"/>
     </row>
     <row r="26" spans="1:12" s="6" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="3">
@@ -1993,11 +2000,11 @@
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-      <c r="J26" s="53" t="s">
+      <c r="J26" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="K26" s="53"/>
-      <c r="L26" s="53"/>
+      <c r="K26" s="40"/>
+      <c r="L26" s="40"/>
     </row>
     <row r="27" spans="1:12" s="6" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="3">
@@ -2023,53 +2030,53 @@
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="53" t="s">
+      <c r="J27" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="K27" s="53"/>
-      <c r="L27" s="53"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="40"/>
     </row>
     <row r="28" spans="1:12" s="6" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="55"/>
-      <c r="B28" s="56"/>
-      <c r="C28" s="57"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="57"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="57"/>
-      <c r="J28" s="57"/>
-      <c r="K28" s="57"/>
-      <c r="L28" s="57"/>
+      <c r="A28" s="85"/>
+      <c r="B28" s="86"/>
+      <c r="C28" s="87"/>
+      <c r="D28" s="87"/>
+      <c r="E28" s="87"/>
+      <c r="F28" s="87"/>
+      <c r="G28" s="87"/>
+      <c r="H28" s="87"/>
+      <c r="I28" s="87"/>
+      <c r="J28" s="87"/>
+      <c r="K28" s="87"/>
+      <c r="L28" s="87"/>
     </row>
     <row r="29" spans="1:12" s="6" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="57"/>
-      <c r="B29" s="57"/>
-      <c r="C29" s="57"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="57"/>
-      <c r="G29" s="57"/>
-      <c r="H29" s="57"/>
-      <c r="I29" s="57"/>
-      <c r="J29" s="57"/>
-      <c r="K29" s="57"/>
-      <c r="L29" s="57"/>
+      <c r="A29" s="87"/>
+      <c r="B29" s="87"/>
+      <c r="C29" s="87"/>
+      <c r="D29" s="87"/>
+      <c r="E29" s="87"/>
+      <c r="F29" s="87"/>
+      <c r="G29" s="87"/>
+      <c r="H29" s="87"/>
+      <c r="I29" s="87"/>
+      <c r="J29" s="87"/>
+      <c r="K29" s="87"/>
+      <c r="L29" s="87"/>
     </row>
     <row r="30" spans="1:12" s="6" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="57"/>
-      <c r="B30" s="57"/>
-      <c r="C30" s="57"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="57"/>
-      <c r="G30" s="57"/>
-      <c r="H30" s="57"/>
-      <c r="I30" s="57"/>
-      <c r="J30" s="57"/>
-      <c r="K30" s="57"/>
-      <c r="L30" s="57"/>
+      <c r="A30" s="87"/>
+      <c r="B30" s="87"/>
+      <c r="C30" s="87"/>
+      <c r="D30" s="87"/>
+      <c r="E30" s="87"/>
+      <c r="F30" s="87"/>
+      <c r="G30" s="87"/>
+      <c r="H30" s="87"/>
+      <c r="I30" s="87"/>
+      <c r="J30" s="87"/>
+      <c r="K30" s="87"/>
+      <c r="L30" s="87"/>
     </row>
     <row r="31" spans="1:12" s="6" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="3">
@@ -2095,11 +2102,11 @@
       </c>
       <c r="H31" s="18"/>
       <c r="I31" s="18"/>
-      <c r="J31" s="52" t="s">
+      <c r="J31" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="K31" s="52"/>
-      <c r="L31" s="52"/>
+      <c r="K31" s="84"/>
+      <c r="L31" s="84"/>
     </row>
     <row r="32" spans="1:12" s="6" customFormat="1" ht="10.5" x14ac:dyDescent="0.4"/>
     <row r="33" spans="2:12" s="6" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
@@ -2112,25 +2119,25 @@
       <c r="D33" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F33" s="103" t="s">
+      <c r="F33" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="G33" s="103" t="s">
+      <c r="G33" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="H33" s="49" t="s">
+      <c r="H33" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="I33" s="49" t="s">
+      <c r="I33" s="75" t="s">
         <v>47</v>
       </c>
-      <c r="J33" s="49" t="s">
+      <c r="J33" s="75" t="s">
         <v>52</v>
       </c>
-      <c r="K33" s="49" t="s">
+      <c r="K33" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="L33" s="49" t="s">
+      <c r="L33" s="75" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2140,13 +2147,13 @@
       </c>
       <c r="C34" s="12"/>
       <c r="D34" s="13"/>
-      <c r="F34" s="104"/>
-      <c r="G34" s="104"/>
-      <c r="H34" s="51"/>
-      <c r="I34" s="51"/>
-      <c r="J34" s="51"/>
-      <c r="K34" s="51"/>
-      <c r="L34" s="51"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="76"/>
+      <c r="I34" s="76"/>
+      <c r="J34" s="76"/>
+      <c r="K34" s="76"/>
+      <c r="L34" s="76"/>
     </row>
     <row r="35" spans="2:12" s="6" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="12" t="s">
@@ -2154,25 +2161,25 @@
       </c>
       <c r="C35" s="12"/>
       <c r="D35" s="13"/>
-      <c r="F35" s="101" t="s">
+      <c r="F35" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="G35" s="58">
+      <c r="G35" s="79">
         <v>1</v>
       </c>
-      <c r="H35" s="60">
+      <c r="H35" s="81">
         <v>8</v>
       </c>
-      <c r="I35" s="60">
+      <c r="I35" s="81">
         <v>12</v>
       </c>
-      <c r="J35" s="60">
+      <c r="J35" s="81">
         <v>19</v>
       </c>
-      <c r="K35" s="60">
+      <c r="K35" s="81">
         <v>21</v>
       </c>
-      <c r="L35" s="62" t="s">
+      <c r="L35" s="77" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2182,13 +2189,13 @@
       </c>
       <c r="C36" s="12"/>
       <c r="D36" s="13"/>
-      <c r="F36" s="102"/>
-      <c r="G36" s="59"/>
-      <c r="H36" s="61"/>
-      <c r="I36" s="61"/>
-      <c r="J36" s="61"/>
-      <c r="K36" s="61"/>
-      <c r="L36" s="63"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="80"/>
+      <c r="H36" s="82"/>
+      <c r="I36" s="82"/>
+      <c r="J36" s="82"/>
+      <c r="K36" s="82"/>
+      <c r="L36" s="78"/>
     </row>
     <row r="37" spans="2:12" s="6" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B37" s="12"/>
@@ -2196,15 +2203,15 @@
       <c r="D37" s="13"/>
     </row>
     <row r="38" spans="2:12" s="6" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F38" s="100" t="s">
+      <c r="F38" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="G38" s="100"/>
-      <c r="H38" s="100"/>
-      <c r="I38" s="100"/>
-      <c r="J38" s="100"/>
-      <c r="K38" s="100"/>
-      <c r="L38" s="100"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="39"/>
+      <c r="I38" s="39"/>
+      <c r="J38" s="39"/>
+      <c r="K38" s="39"/>
+      <c r="L38" s="39"/>
     </row>
     <row r="39" spans="2:12" s="6" customFormat="1" ht="10.5" x14ac:dyDescent="0.4">
       <c r="F39" s="21"/>
@@ -2261,16 +2268,16 @@
       <c r="D47" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E47" s="94" t="s">
+      <c r="E47" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="F47" s="95"/>
-      <c r="G47" s="95"/>
-      <c r="H47" s="95"/>
-      <c r="I47" s="95"/>
-      <c r="J47" s="95"/>
-      <c r="K47" s="95"/>
-      <c r="L47" s="95"/>
+      <c r="F47" s="47"/>
+      <c r="G47" s="47"/>
+      <c r="H47" s="47"/>
+      <c r="I47" s="47"/>
+      <c r="J47" s="47"/>
+      <c r="K47" s="47"/>
+      <c r="L47" s="47"/>
     </row>
     <row r="48" spans="2:12" s="6" customFormat="1" ht="10.5" x14ac:dyDescent="0.4">
       <c r="B48" s="1" t="s">
@@ -2282,16 +2289,16 @@
       <c r="D48" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="E48" s="96" t="s">
+      <c r="E48" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="F48" s="97"/>
-      <c r="G48" s="97"/>
-      <c r="H48" s="97"/>
-      <c r="I48" s="97"/>
-      <c r="J48" s="97"/>
-      <c r="K48" s="97"/>
-      <c r="L48" s="97"/>
+      <c r="F48" s="49"/>
+      <c r="G48" s="49"/>
+      <c r="H48" s="49"/>
+      <c r="I48" s="49"/>
+      <c r="J48" s="49"/>
+      <c r="K48" s="49"/>
+      <c r="L48" s="49"/>
     </row>
     <row r="49" spans="2:12" s="6" customFormat="1" ht="10.5" x14ac:dyDescent="0.4">
       <c r="B49" s="8"/>
@@ -2315,16 +2322,16 @@
       <c r="D51" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E51" s="98" t="s">
+      <c r="E51" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="F51" s="99"/>
-      <c r="G51" s="99"/>
-      <c r="H51" s="99"/>
-      <c r="I51" s="99"/>
-      <c r="J51" s="99"/>
-      <c r="K51" s="99"/>
-      <c r="L51" s="99"/>
+      <c r="F51" s="51"/>
+      <c r="G51" s="51"/>
+      <c r="H51" s="51"/>
+      <c r="I51" s="51"/>
+      <c r="J51" s="51"/>
+      <c r="K51" s="51"/>
+      <c r="L51" s="51"/>
     </row>
     <row r="52" spans="2:12" s="6" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B52" s="1" t="s">
@@ -2336,16 +2343,16 @@
       <c r="D52" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="E52" s="53" t="s">
+      <c r="E52" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="F52" s="53"/>
-      <c r="G52" s="53"/>
-      <c r="H52" s="53"/>
-      <c r="I52" s="53"/>
-      <c r="J52" s="53"/>
-      <c r="K52" s="53"/>
-      <c r="L52" s="53"/>
+      <c r="F52" s="40"/>
+      <c r="G52" s="40"/>
+      <c r="H52" s="40"/>
+      <c r="I52" s="40"/>
+      <c r="J52" s="40"/>
+      <c r="K52" s="40"/>
+      <c r="L52" s="40"/>
     </row>
     <row r="53" spans="2:12" s="6" customFormat="1" ht="10.5" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
@@ -2357,16 +2364,16 @@
       <c r="D53" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="E53" s="54" t="s">
+      <c r="E53" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="F53" s="54"/>
-      <c r="G53" s="54"/>
-      <c r="H53" s="54"/>
-      <c r="I53" s="54"/>
-      <c r="J53" s="54"/>
-      <c r="K53" s="54"/>
-      <c r="L53" s="54"/>
+      <c r="F53" s="45"/>
+      <c r="G53" s="45"/>
+      <c r="H53" s="45"/>
+      <c r="I53" s="45"/>
+      <c r="J53" s="45"/>
+      <c r="K53" s="45"/>
+      <c r="L53" s="45"/>
     </row>
     <row r="54" spans="2:12" s="6" customFormat="1" ht="10.5" x14ac:dyDescent="0.4">
       <c r="B54" s="1" t="s">
@@ -2378,34 +2385,35 @@
       <c r="D54" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E54" s="54" t="s">
+      <c r="E54" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="F54" s="54"/>
-      <c r="G54" s="54"/>
-      <c r="H54" s="54"/>
-      <c r="I54" s="54"/>
-      <c r="J54" s="54"/>
-      <c r="K54" s="54"/>
-      <c r="L54" s="54"/>
+      <c r="F54" s="45"/>
+      <c r="G54" s="45"/>
+      <c r="H54" s="45"/>
+      <c r="I54" s="45"/>
+      <c r="J54" s="45"/>
+      <c r="K54" s="45"/>
+      <c r="L54" s="45"/>
     </row>
     <row r="55" spans="2:12" s="6" customFormat="1" ht="10.5" x14ac:dyDescent="0.4"/>
     <row r="56" spans="2:12" s="6" customFormat="1" ht="10.5" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="F38:L38"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="E54:L54"/>
-    <mergeCell ref="E47:L47"/>
-    <mergeCell ref="E48:L48"/>
-    <mergeCell ref="E51:L51"/>
-    <mergeCell ref="E52:L52"/>
-    <mergeCell ref="E53:L53"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="J3:L11"/>
+    <mergeCell ref="I3:I11"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="A28:L30"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="A3:B11"/>
+    <mergeCell ref="E3:E11"/>
+    <mergeCell ref="F3:H11"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A13:B13"/>
@@ -2422,6 +2430,19 @@
     <mergeCell ref="C2:H2"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="F12:H12"/>
+    <mergeCell ref="E54:L54"/>
+    <mergeCell ref="E47:L47"/>
+    <mergeCell ref="E48:L48"/>
+    <mergeCell ref="E51:L51"/>
+    <mergeCell ref="E52:L52"/>
+    <mergeCell ref="E53:L53"/>
+    <mergeCell ref="F38:L38"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="F33:F34"/>
     <mergeCell ref="L33:L34"/>
     <mergeCell ref="L35:L36"/>
     <mergeCell ref="H33:H34"/>
@@ -2431,20 +2452,6 @@
     <mergeCell ref="G35:G36"/>
     <mergeCell ref="H35:H36"/>
     <mergeCell ref="I35:I36"/>
-    <mergeCell ref="J35:J36"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="J3:L11"/>
-    <mergeCell ref="I3:I11"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="A28:L30"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="A3:B11"/>
-    <mergeCell ref="E3:E11"/>
-    <mergeCell ref="F3:H11"/>
   </mergeCells>
   <pageMargins left="0.4" right="0.4" top="1" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2882,7 +2889,7 @@
     <row r="66" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="67" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.4" right="0.4" top="1" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
